--- a/test_data/true_cols.xlsx
+++ b/test_data/true_cols.xlsx
@@ -379,10 +379,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -484,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -510,18 +510,18 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -663,18 +663,18 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -714,12 +714,12 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -850,12 +850,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -912,18 +912,18 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1122,18 +1122,18 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1156,15 +1156,15 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1201,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1263,13 +1263,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1343,15 +1343,15 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1538,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1612,15 +1612,15 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1680,15 +1680,15 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1793,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2028,7 +2028,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2074,1706 +2074,6 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>0</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>0</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>0</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>0</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>0</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>0</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>0</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>0</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>0</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>0</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>0</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>0</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>0</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>0</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>0</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>0</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>0</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>0</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>0</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>0</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>0</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>0</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>0</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>0</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>0</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>0</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>0</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>0</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>0</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>0</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>0</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>0</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>0</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>0</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>0</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>0</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>0</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>0</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>0</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>0</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>0</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>0</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>0</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>0</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>0</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>0</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>1</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>0</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>0</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>0</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>0</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>0</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>0</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>1</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>1</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>1</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>0</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>0</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>0</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3813,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3822,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3830,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3844,10 +2144,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -3864,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3881,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3890,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3898,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3912,10 +2212,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3929,10 +2229,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -3946,7 +2246,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -3955,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3980,10 +2280,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -4000,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -4009,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4017,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4065,13 +2365,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4085,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -4094,15 +2394,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -4150,13 +2450,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4170,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -4179,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4204,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -4227,18 +2527,18 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -4255,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4286,13 +2586,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4306,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4320,10 +2620,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -4337,7 +2637,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -4349,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4357,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -4374,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4388,10 +2688,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -4425,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4459,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -4468,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -4493,13 +2793,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4513,24 +2813,24 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4578,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4592,7 +2892,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -4601,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -4626,7 +2926,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -4635,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -4646,2565 +2946,15 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>1</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>0</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>0</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>0</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>0</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>0</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>0</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>0</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>0</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>0</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>0</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>0</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>0</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>0</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>0</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>0</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>0</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>0</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>0</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>0</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>0</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>0</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>0</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>0</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>0</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>0</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>0</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>0</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>0</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>0</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>0</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>0</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>0</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>0</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>0</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>0</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>0</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>0</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>0</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>0</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>0</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>0</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>0</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>0</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>1</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>0</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>0</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>0</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>0</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>0</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>0</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>1</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>0</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>0</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>1</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>1</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>1</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>1</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,7 +3008,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -7267,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -7275,10 +3025,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7295,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -7312,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -7326,7 +3076,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -7335,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -7349,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -7360,13 +3110,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7377,10 +3127,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -7397,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7411,7 +3161,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -7420,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7431,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7445,7 +3195,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -7457,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7465,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -7474,15 +3224,15 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -7496,7 +3246,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -7508,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7516,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -7533,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -7542,12 +3292,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -7556,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7564,10 +3314,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -7598,10 +3348,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -7615,7 +3365,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -7624,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7655,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -7703,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -7717,10 +3467,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -7743,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -7768,7 +3518,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -7777,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -7802,7 +3552,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -7811,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -7825,13 +3575,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -7839,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -7848,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7873,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -7887,10 +3637,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -7904,10 +3654,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -7955,10 +3705,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -7995,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -8006,7 +3756,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -8015,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -8043,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -8060,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -8069,15 +3819,15 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -8094,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -8108,7 +3858,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -8117,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -8148,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -8159,13 +3909,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -8176,7 +3926,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -8188,18 +3938,18 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -8233,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -8244,13 +3994,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -8264,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -8312,13 +4062,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -8329,13 +4079,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -8355,18 +4105,18 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -8380,10 +4130,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -8397,7 +4147,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -8409,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -8420,18 +4170,18 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -8443,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -8468,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -8502,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -8511,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -8533,13 +4283,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -8553,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -8562,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -8573,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -8587,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -8618,10 +4368,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -8641,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -8652,7 +4402,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -8661,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -8669,7 +4419,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -8681,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -8689,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -8703,13 +4453,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -8726,21 +4476,21 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -8757,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -8771,7 +4521,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -8780,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -8797,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -8808,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -8828,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -8839,7 +4589,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -8851,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -8859,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -8873,7 +4623,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -8882,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -8924,13 +4674,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -8941,10 +4691,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -8964,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -8978,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -8995,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -9004,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -9012,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -9021,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -9046,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -9055,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -9066,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -9080,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -9100,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -9111,10 +4861,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -9134,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -9145,13 +4895,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -9165,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -9199,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -9216,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -9239,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -9250,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -9259,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -9267,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -9276,12 +5026,12 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -9293,18 +5043,18 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -9318,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -9369,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -9383,10 +5133,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -9400,7 +5150,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -9409,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -9437,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -9460,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -9488,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -9497,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -9508,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -9525,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -9536,10 +5286,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -9559,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -9573,10 +5323,10 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -9587,10 +5337,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -9624,10 +5374,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -9638,10 +5388,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -9655,7 +5405,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -9667,15 +5417,15 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -9706,7 +5456,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -9715,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -9743,13 +5493,13 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -9757,7 +5507,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -9766,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -9800,18 +5550,18 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -9859,10 +5609,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -9876,13 +5626,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -9899,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -9927,10 +5677,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -9944,13 +5694,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9964,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -9973,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -9995,10 +5745,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -10035,10 +5785,10 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -10046,7 +5796,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -10058,15 +5808,15 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -10080,7 +5830,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -10092,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -10100,13 +5850,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -10114,10 +5864,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -10131,13 +5881,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -10185,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -10194,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -10202,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -10219,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -10228,15 +5978,15 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -10253,10 +6003,10 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -10273,10 +6023,10 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -10318,7 +6068,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -10330,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -10352,10 +6102,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -10369,13 +6119,13 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -10392,10 +6142,10 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -10403,13 +6153,13 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -10423,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -10437,7 +6187,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -10449,15 +6199,15 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -10474,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -10483,15 +6233,15 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -10514,18 +6264,18 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -10539,10 +6289,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -10556,10 +6306,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -10579,13 +6329,13 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -10593,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -10624,18 +6374,868 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
       </c>
       <c r="E201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
         <v>0</v>
       </c>
     </row>
